--- a/files/lora-lorawan.xlsx
+++ b/files/lora-lorawan.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +410,7 @@
     <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="36.109375" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/files/lora-lorawan.xlsx
+++ b/files/lora-lorawan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Pycom devices</t>
   </si>
@@ -60,10 +60,31 @@
     <t>Hardware Type</t>
   </si>
   <si>
-    <t>Fipy, LoPy</t>
-  </si>
-  <si>
-    <t>Arduino LoRa GPS Sheild</t>
+    <t>[FiPy](https://pycom.io/product/fipy/){:target="_blank"}, [LoPy](https://pycom.io/product/lopy4/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>mBed SX1272</t>
+  </si>
+  <si>
+    <t>[SX1272MB2xAS ](https://os.mbed.com/components/SX1272MB2xAS/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>[SX1272Lib](https://os.mbed.com/teams/Semtech/code/SX1272Lib/file/b988b60083a1/sx1272/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>[Microchip RN2483](https://www.microchip.com/wwwproducts/en/RN2483){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>RN2483</t>
+  </si>
+  <si>
+    <t>[LoRa GPS HAT for Raspberry Pi](https://www.dragino.com/products/lora/item/106-lora-gps-hat.html){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>[Arduino LoRa GPS Sheild](https://wiki.dragino.com/index.php?title=Lora/GPS_Shield){:target="_blank"}, [Seeeduino LoRaWAN](http://wiki.seeedstudio.com/Seeeduino_LoRAWAN/){:target="_blank"}</t>
   </si>
 </sst>
 </file>
@@ -114,10 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,10 +488,45 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/lora-lorawan.xlsx
+++ b/files/lora-lorawan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Pycom devices</t>
   </si>
@@ -39,9 +39,6 @@
     <t>[LoRaMAC](https://docs.pycom.io/tutorials/lora/lora-mac/){:target="_blank"}</t>
   </si>
   <si>
-    <t>Arduino Based</t>
-  </si>
-  <si>
     <t>[Arduino LMIC](https://github.com/matthijskooijman/arduino-lmic){:target="_blank"}</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>mBed SX1272</t>
-  </si>
-  <si>
-    <t>[SX1272MB2xAS ](https://os.mbed.com/components/SX1272MB2xAS/){:target="_blank"}</t>
-  </si>
-  <si>
-    <t>[SX1272Lib](https://os.mbed.com/teams/Semtech/code/SX1272Lib/file/b988b60083a1/sx1272/){:target="_blank"}</t>
-  </si>
-  <si>
     <t>[Microchip RN2483](https://www.microchip.com/wwwproducts/en/RN2483){:target="_blank"}</t>
   </si>
   <si>
@@ -85,6 +73,24 @@
   </si>
   <si>
     <t>[Arduino LoRa GPS Sheild](https://wiki.dragino.com/index.php?title=Lora/GPS_Shield){:target="_blank"}, [Seeeduino LoRaWAN](http://wiki.seeedstudio.com/Seeeduino_LoRAWAN/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>[LoRaWAN-lib](https://os.mbed.com/teams/Semtech/code/LoRaWAN-lib/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>mBed-Based</t>
+  </si>
+  <si>
+    <t>[SX1272Lib](https://os.mbed.com/teams/Semtech/code/SX1272Lib/file/b988b60083a1/sx1272/){:target="_blank"}, [SX1276Lib](https://os.mbed.com/teams/Semtech/code/SX1276Lib/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>[SX1272MB2xAS ](https://os.mbed.com/components/SX1272MB2xAS/){:target="_blank"}, [SX1276MB1xAS](https://os.mbed.com/components/SX1276MB1xAS/){:target="_blank"}</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Shield</t>
+  </si>
+  <si>
+    <t>Arduino Shield</t>
   </si>
 </sst>
 </file>
@@ -424,12 +430,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" customWidth="1"/>
     <col min="3" max="3" width="36.109375" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
@@ -438,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -450,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -466,45 +472,43 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -512,20 +516,28 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
